--- a/biology/Botanique/Millésime/Millésime.xlsx
+++ b/biology/Botanique/Millésime/Millésime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mill%C3%A9sime</t>
+          <t>Millésime</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un millésime est le nombre désignant une année. Ce terme sert à déterminer l'âge de certains produits, comme quasiment tous les vins, des alcools, quelques bières, certaines boites de sardines à l'huile[1], les automobiles, les pièces de monnaie, etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un millésime est le nombre désignant une année. Ce terme sert à déterminer l'âge de certains produits, comme quasiment tous les vins, des alcools, quelques bières, certaines boites de sardines à l'huile, les automobiles, les pièces de monnaie, etc.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mill%C3%A9sime</t>
+          <t>Millésime</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,70 +523,291 @@
           <t>Œnologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En œnologie, le millésime est l'année de récolte des raisins ayant servi à produire le vin. C'est un repère important (voire essentiel pour les très grands vins) car il permet de juger de l’évolution du vin par rapport aux conditions climatologiques locales de l'année de récolte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En œnologie, le millésime est l'année de récolte des raisins ayant servi à produire le vin. C'est un repère important (voire essentiel pour les très grands vins) car il permet de juger de l’évolution du vin par rapport aux conditions climatologiques locales de l'année de récolte.
 Il est généralement indiqué sur l'étiquette apposée sur la bouteille. Il peut également l’être sur une collerette, apposée sur le col. Depuis l'essor commercial d'après-guerre, quasiment tous les vins sont millésimés. Seuls les plus ordinaires, souvent des mélanges de cépages ou de vins de provenances diverses, ne le sont pas.
 Lors de certaines années médiocres, lorsque la qualité n'est pas jugée suffisante, certains producteurs de crus prestigieux déclassent partiellement ou complètement leur récolte. C'est le cas du Château d'Yquem. A contrario, les professionnels gardent en mémoire les millésimes de légende de ce château.
-Cependant, le champagne est le seul vin d'assemblage (assemblage de vins issus d'années différentes) autorisé en France et ne possédant pas de millésime ; si l'assemblage est obtenu à partir de vins de la même année de récolte, il s'agira alors d'un champagne millésimé, issu d'une année exceptionnelle[2].
-Depuis quelques années, le CENBG (Centre d'Étude Nucléaire de Bordeaux-Gradignan), laboratoire de physique nucléaire, collabore avec la répression de fraudes de Bordeaux afin de dater les vins. En effet, le CENBG utilise une méthode non destructive permettant de savoir si les vins datent d'avant ou d'après la Seconde Guerre mondiale. Il s'agit de placer la bouteille dans un spectromètre gamma (à base de cristaux de germanium très haute pureté HPGe), et de regarder s'il y a ou non présence du césium 137, isotope radioactif produit par les bombes, qui n'est pas présent naturellement[3]. De nombreuses fraudes ont été détectées par cette méthode, très fiable.
-Législation
-Selon la législation européenne, l'indication de l'année de récolte sur les étiquettes reste facultative, cependant elle est : 
+Cependant, le champagne est le seul vin d'assemblage (assemblage de vins issus d'années différentes) autorisé en France et ne possédant pas de millésime ; si l'assemblage est obtenu à partir de vins de la même année de récolte, il s'agira alors d'un champagne millésimé, issu d'une année exceptionnelle.
+Depuis quelques années, le CENBG (Centre d'Étude Nucléaire de Bordeaux-Gradignan), laboratoire de physique nucléaire, collabore avec la répression de fraudes de Bordeaux afin de dater les vins. En effet, le CENBG utilise une méthode non destructive permettant de savoir si les vins datent d'avant ou d'après la Seconde Guerre mondiale. Il s'agit de placer la bouteille dans un spectromètre gamma (à base de cristaux de germanium très haute pureté HPGe), et de regarder s'il y a ou non présence du césium 137, isotope radioactif produit par les bombes, qui n'est pas présent naturellement. De nombreuses fraudes ont été détectées par cette méthode, très fiable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Législation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la législation européenne, l'indication de l'année de récolte sur les étiquettes reste facultative, cependant elle est : 
 obligatoire sur l’étiquette des vins « sur lie », « primeur » et « nouveaux ».
-interdite lorsque plus de 15 % des raisins ayant servi à produire le vin proviennent d'années de récoltes différentes. C'est-à-dire qu'au minimum 85 % du vin doivent provenir du même millésime pour pouvoir l’inscrire sur l’étiquette[4].
-Millésimes en France
-Alsace
-Champagne
-En Champagne, seules les meilleures années sont millésimées. C'est ainsi la marque d'une cuvée de qualité. Contrairement aux bruts sans année, composés de vins de différentes années, un seul millésime entre dans l'assemblage d'un brut millésimé. Certains producteurs créent également des rosés millésimés. C'est le producteur qui décide de faire ou pas une partie de sa récolte en vin millésimé.
-Sud-Ouest
-Bordelais
-Bordeaux rouges
+interdite lorsque plus de 15 % des raisins ayant servi à produire le vin proviennent d'années de récoltes différentes. C'est-à-dire qu'au minimum 85 % du vin doivent provenir du même millésime pour pouvoir l’inscrire sur l’étiquette.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Millésimes en France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Champagne</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Champagne, seules les meilleures années sont millésimées. C'est ainsi la marque d'une cuvée de qualité. Contrairement aux bruts sans année, composés de vins de différentes années, un seul millésime entre dans l'assemblage d'un brut millésimé. Certains producteurs créent également des rosés millésimés. C'est le producteur qui décide de faire ou pas une partie de sa récolte en vin millésimé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Millésimes en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bordelais</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bordeaux rouges
 Ces millésimes correspondent aux vins rouges de l'ensemble du vignoble bordelais. Ils sont notés comme suit : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
-Jura
-Savoie
-Val de Loire
-Bourgogne
-Millésimes rouges
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Millésimes en France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bourgogne</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millésimes rouges
 Ces millésimes correspondent aux vins rouges de l'ensemble du vignoble de la Bourgogne. Ils sont notés comme suit : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur cent-dix ans : seize années exceptionnelles, vingt-cinq grandes années, vingt-huit bonnes années, vingt années moyennes, neuf années médiocres et dix années non notées.
 Millésimes blancs
 Ces millésimes correspondent aux vins blancs de l'ensemble du vignoble de la Bourgogne. Ils sont notés comme suit : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur cent-dix ans : treize années exceptionnelles, vingt-neuf grandes années, vingt-six bonnes années, dix-huit années moyennes, onze années médiocres et quatorze années non notées.
-Beaujolais
-Languedoc-Roussillon
-Vallée du Rhône
-Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Millésimes en France</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vallée du Rhône</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur quatre-vingt-dix ans : vingt-quatre années exceptionnelles, vingt-six grandes années, seize bonnes années, vingt-deux années moyennes et deux années médiocres.
-Provence
-Corse</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mill%C3%A9sime</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œnologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Millésimes en France</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Provence</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Millésime</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mill%C3%A9sime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
